--- a/Project 1/meal_fund.xlsx
+++ b/Project 1/meal_fund.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaredeker/Documents/GitHub/Rebecca_Redeker_JOUR472/Project 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE447075-94A6-244A-924A-D6FA0308F89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 1 - Percentage_of_Student" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -234,17 +243,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0000000000"/>
-    <numFmt numFmtId="60" formatCode="0.0000000"/>
-    <numFmt numFmtId="61" formatCode="0.00000000"/>
-    <numFmt numFmtId="62" formatCode="0.000000"/>
-    <numFmt numFmtId="63" formatCode="0.000000000"/>
-    <numFmt numFmtId="64" formatCode="0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -254,23 +262,27 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -420,103 +432,106 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,29 +541,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -747,7 +818,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -766,7 +837,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,9 +1088,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1036,7 +1113,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1055,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1107,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,9 +1379,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1318,7 +1401,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1337,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1393,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1419,7 +1502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,7 +1528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1471,7 +1554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1497,7 +1580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1523,7 +1606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1588,74 +1671,84 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1664,1497 +1757,1501 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Sheet 1 - Percentage_of_Student'!R2C1" tooltip="" display="Sheet 1 - Percentage_of_Student"/>
-    <hyperlink ref="D12" location="'Sheet 2'!R2C1" tooltip="" display="Sheet 2"/>
+    <hyperlink ref="D10" location="'Sheet 1 - Percentage_of_Student'!R2C1" display="Sheet 1 - Percentage_of_Student" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Sheet 2'!R2C1" display="Sheet 2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.1719" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.8516" style="6" customWidth="1"/>
-    <col min="4" max="5" width="7.85156" style="6" customWidth="1"/>
-    <col min="6" max="8" width="15.8516" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.35156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="7.83203125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="15.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="8">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11">
-        <v>86.0523824550331</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="9">
+        <v>86.052382455033097</v>
+      </c>
+      <c r="D3" s="9">
         <v>86.08</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>79.34</v>
       </c>
-      <c r="F3" s="11">
-        <v>87.78767631774311</v>
-      </c>
-      <c r="G3" s="12">
-        <v>38770.1655711966</v>
-      </c>
-      <c r="H3" s="13">
-        <v>63770461.7790932</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="14">
+      <c r="F3" s="9">
+        <v>87.787676317743106</v>
+      </c>
+      <c r="G3" s="10">
+        <v>38770.165571196601</v>
+      </c>
+      <c r="H3" s="11">
+        <v>63770461.779093198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="15">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="16">
-        <v>76.2645914396887</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="C4" s="14">
+        <v>76.264591439688701</v>
+      </c>
+      <c r="D4" s="14">
         <v>77.78</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>69.58</v>
       </c>
-      <c r="F4" s="16">
-        <v>79.12992357436799</v>
-      </c>
-      <c r="G4" s="17">
-        <v>37524.9505333862</v>
-      </c>
-      <c r="H4" s="18">
-        <v>47882527.7112373</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="14">
+      <c r="F4" s="14">
+        <v>79.129923574367993</v>
+      </c>
+      <c r="G4" s="15">
+        <v>37524.950533386203</v>
+      </c>
+      <c r="H4" s="16">
+        <v>47882527.711237296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="15">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16">
-        <v>85.53971486761711</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="14">
+        <v>85.539714867617107</v>
+      </c>
+      <c r="D5" s="14">
         <v>84.39</v>
       </c>
-      <c r="E5" s="16">
-        <v>78.76000000000001</v>
-      </c>
-      <c r="F5" s="16">
-        <v>86.01357332546471</v>
-      </c>
-      <c r="G5" s="17">
-        <v>31307.3148434905</v>
-      </c>
-      <c r="H5" s="18">
-        <v>44950030.4722053</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="14">
+      <c r="E5" s="14">
+        <v>78.760000000000005</v>
+      </c>
+      <c r="F5" s="14">
+        <v>86.013573325464705</v>
+      </c>
+      <c r="G5" s="15">
+        <v>31307.314843490502</v>
+      </c>
+      <c r="H5" s="16">
+        <v>44950030.472205304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="15">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16">
-        <v>85.77586206896549</v>
-      </c>
-      <c r="D6" s="16">
-        <v>88.48999999999999</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="C6" s="14">
+        <v>85.775862068965495</v>
+      </c>
+      <c r="D6" s="14">
+        <v>88.49</v>
+      </c>
+      <c r="E6" s="14">
         <v>78.45</v>
       </c>
-      <c r="F6" s="16">
-        <v>90.4589371980676</v>
-      </c>
-      <c r="G6" s="19">
-        <v>150987.70363871</v>
-      </c>
-      <c r="H6" s="20">
-        <v>176077742.748461</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="14">
+      <c r="F6" s="14">
+        <v>90.458937198067602</v>
+      </c>
+      <c r="G6" s="17">
+        <v>150987.70363870999</v>
+      </c>
+      <c r="H6" s="18">
+        <v>176077742.74846101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="15">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16">
-        <v>73.5449735449735</v>
-      </c>
-      <c r="D7" s="16">
-        <v>70.98999999999999</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="C7" s="14">
+        <v>73.544973544973502</v>
+      </c>
+      <c r="D7" s="14">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="E7" s="14">
         <v>61.81</v>
       </c>
-      <c r="F7" s="16">
-        <v>67.72486772486771</v>
-      </c>
-      <c r="G7" s="17">
-        <v>23338.6119476392</v>
-      </c>
-      <c r="H7" s="18">
-        <v>15408538.2249734</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="14">
+      <c r="F7" s="14">
+        <v>67.724867724867707</v>
+      </c>
+      <c r="G7" s="15">
+        <v>23338.611947639201</v>
+      </c>
+      <c r="H7" s="16">
+        <v>15408538.224973399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="15">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="16">
-        <v>80.5096232041204</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="14">
+        <v>80.509623204120402</v>
+      </c>
+      <c r="D8" s="14">
         <v>80.89</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>73.13</v>
       </c>
-      <c r="F8" s="16">
-        <v>82.53251924608441</v>
-      </c>
-      <c r="G8" s="17">
-        <v>39962.5498346887</v>
-      </c>
-      <c r="H8" s="20">
-        <v>71541340.306082</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="14">
+      <c r="F8" s="14">
+        <v>82.532519246084405</v>
+      </c>
+      <c r="G8" s="15">
+        <v>39962.549834688703</v>
+      </c>
+      <c r="H8" s="18">
+        <v>71541340.306081995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>91.2512218963832</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>92.33</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>88.52</v>
       </c>
-      <c r="F9" s="16">
-        <v>94.08450704225351</v>
-      </c>
-      <c r="G9" s="17">
-        <v>22305.3020666774</v>
-      </c>
-      <c r="H9" s="20">
-        <v>29144181.351516</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="14">
+      <c r="F9" s="14">
+        <v>94.084507042253506</v>
+      </c>
+      <c r="G9" s="15">
+        <v>22305.302066677399</v>
+      </c>
+      <c r="H9" s="18">
+        <v>29144181.351516001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="15">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16">
-        <v>79.55209347614409</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="14">
+        <v>79.552093476144094</v>
+      </c>
+      <c r="D10" s="14">
         <v>75.69</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>68.12</v>
       </c>
-      <c r="F10" s="16">
-        <v>75.296442687747</v>
-      </c>
-      <c r="G10" s="21">
-        <v>21705.411630324</v>
-      </c>
-      <c r="H10" s="18">
-        <v>21022590.1303212</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14">
+      <c r="F10" s="14">
+        <v>75.296442687747003</v>
+      </c>
+      <c r="G10" s="19">
+        <v>21705.411630324001</v>
+      </c>
+      <c r="H10" s="16">
+        <v>21022590.130321201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="15">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="16">
-        <v>81.85388845247449</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="14">
+        <v>81.853888452474493</v>
+      </c>
+      <c r="D11" s="14">
         <v>86.62</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>81.03</v>
       </c>
-      <c r="F11" s="16">
-        <v>88.93011750154611</v>
-      </c>
-      <c r="G11" s="17">
-        <v>40104.4159801772</v>
-      </c>
-      <c r="H11" s="18">
-        <v>61243774.4204004</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="14">
+      <c r="F11" s="14">
+        <v>88.930117501546107</v>
+      </c>
+      <c r="G11" s="15">
+        <v>40104.415980177197</v>
+      </c>
+      <c r="H11" s="16">
+        <v>61243774.420400403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="15">
+      <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16">
-        <v>89.9011602922217</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="C12" s="14">
+        <v>89.901160292221704</v>
+      </c>
+      <c r="D12" s="14">
         <v>91.94</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>82.88</v>
       </c>
-      <c r="F12" s="16">
-        <v>92.972972972973</v>
-      </c>
-      <c r="G12" s="17">
-        <v>24022.7646207856</v>
-      </c>
-      <c r="H12" s="18">
-        <v>23285233.9251306</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="14">
+      <c r="F12" s="14">
+        <v>92.972972972972997</v>
+      </c>
+      <c r="G12" s="15">
+        <v>24022.764620785601</v>
+      </c>
+      <c r="H12" s="16">
+        <v>23285233.925130598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="15">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="16">
-        <v>56.441717791411</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="14">
+        <v>56.441717791411001</v>
+      </c>
+      <c r="D13" s="14">
         <v>63.08</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>56.76</v>
       </c>
-      <c r="F13" s="16">
-        <v>64.9253731343284</v>
-      </c>
-      <c r="G13" s="17">
-        <v>26788.3018784185</v>
-      </c>
-      <c r="H13" s="18">
-        <v>38222018.3165464</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="14">
+      <c r="F13" s="14">
+        <v>64.925373134328396</v>
+      </c>
+      <c r="G13" s="15">
+        <v>26788.301878418501</v>
+      </c>
+      <c r="H13" s="16">
+        <v>38222018.316546403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="15">
+      <c r="B14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="16">
-        <v>81.3953488372093</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="14">
+        <v>81.395348837209298</v>
+      </c>
+      <c r="D14" s="14">
         <v>82</v>
       </c>
-      <c r="E14" s="16">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="F14" s="16">
-        <v>85.5805243445693</v>
-      </c>
-      <c r="G14" s="17">
-        <v>31637.8174238148</v>
-      </c>
-      <c r="H14" s="20">
-        <v>35719112.414486</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="14">
+      <c r="E14" s="14">
+        <v>72.260000000000005</v>
+      </c>
+      <c r="F14" s="14">
+        <v>85.580524344569298</v>
+      </c>
+      <c r="G14" s="15">
+        <v>31637.817423814799</v>
+      </c>
+      <c r="H14" s="18">
+        <v>35719112.414485998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="15">
+      <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16">
-        <v>78.58683926645089</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="14">
+        <v>78.586839266450895</v>
+      </c>
+      <c r="D15" s="14">
         <v>79.2</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>73.33</v>
       </c>
-      <c r="F15" s="16">
-        <v>83.1428571428571</v>
-      </c>
-      <c r="G15" s="17">
-        <v>27136.0757115223</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="F15" s="14">
+        <v>83.142857142857096</v>
+      </c>
+      <c r="G15" s="15">
+        <v>27136.075711522299</v>
+      </c>
+      <c r="H15" s="16">
         <v>34118277.1815219</v>
       </c>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="14">
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="15">
+      <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>84.4444444444444</v>
       </c>
-      <c r="D16" s="16">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="E16" s="16">
-        <v>76.20999999999999</v>
-      </c>
-      <c r="F16" s="16">
-        <v>86.2745098039216</v>
-      </c>
-      <c r="G16" s="17">
-        <v>21565.8593945388</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="D16" s="14">
+        <v>86.6</v>
+      </c>
+      <c r="E16" s="14">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="F16" s="14">
+        <v>86.274509803921603</v>
+      </c>
+      <c r="G16" s="15">
+        <v>21565.859394538798</v>
+      </c>
+      <c r="H16" s="16">
         <v>20736554.4071934</v>
       </c>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="14">
+    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="15">
+      <c r="B17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>85.9961807765754</v>
       </c>
-      <c r="D17" s="16">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="D17" s="14">
+        <v>84.01</v>
+      </c>
+      <c r="E17" s="14">
         <v>79.37</v>
       </c>
-      <c r="F17" s="16">
-        <v>87.5176304654443</v>
-      </c>
-      <c r="G17" s="17">
+      <c r="F17" s="14">
+        <v>87.517630465444299</v>
+      </c>
+      <c r="G17" s="15">
         <v>21504.5513578719</v>
       </c>
-      <c r="H17" s="18">
-        <v>23563061.0426838</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="14">
+      <c r="H17" s="16">
+        <v>23563061.042683799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="15">
+      <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16">
-        <v>73.8341968911917</v>
-      </c>
-      <c r="D18" s="16">
-        <v>75.48999999999999</v>
-      </c>
-      <c r="E18" s="16">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="F18" s="16">
-        <v>75.88652482269499</v>
-      </c>
-      <c r="G18" s="17">
-        <v>27670.1699158504</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="C18" s="14">
+        <v>73.834196891191695</v>
+      </c>
+      <c r="D18" s="14">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="E18" s="14">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="F18" s="14">
+        <v>75.886524822694994</v>
+      </c>
+      <c r="G18" s="15">
+        <v>27670.169915850402</v>
+      </c>
+      <c r="H18" s="16">
         <v>12620515.7178779</v>
       </c>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="14">
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" t="s" s="15">
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="16">
-        <v>83.9328537170264</v>
-      </c>
-      <c r="D19" s="16">
-        <v>84.23999999999999</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="C19" s="14">
+        <v>83.932853717026404</v>
+      </c>
+      <c r="D19" s="14">
+        <v>84.24</v>
+      </c>
+      <c r="E19" s="14">
         <v>76.42</v>
       </c>
-      <c r="F19" s="16">
-        <v>86.0849056603774</v>
-      </c>
-      <c r="G19" s="21">
-        <v>36886.899781185</v>
-      </c>
-      <c r="H19" s="18">
-        <v>37200535.0297002</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="14">
+      <c r="F19" s="14">
+        <v>86.084905660377402</v>
+      </c>
+      <c r="G19" s="19">
+        <v>36886.899781184999</v>
+      </c>
+      <c r="H19" s="16">
+        <v>37200535.029700197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" t="s" s="15">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="16">
-        <v>71.5267175572519</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="C20" s="14">
+        <v>71.526717557251899</v>
+      </c>
+      <c r="D20" s="14">
         <v>75.87</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>69.27</v>
       </c>
-      <c r="F20" s="16">
-        <v>77.49253731343281</v>
-      </c>
-      <c r="G20" s="17">
-        <v>48549.0046179359</v>
-      </c>
-      <c r="H20" s="18">
-        <v>46995477.4779553</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="14">
+      <c r="F20" s="14">
+        <v>77.492537313432805</v>
+      </c>
+      <c r="G20" s="15">
+        <v>48549.004617935898</v>
+      </c>
+      <c r="H20" s="16">
+        <v>46995477.477955297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" t="s" s="15">
+      <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="16">
-        <v>84.2479674796748</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C21" s="14">
+        <v>84.247967479674799</v>
+      </c>
+      <c r="D21" s="14">
         <v>83.09</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>77.48</v>
       </c>
-      <c r="F21" s="16">
-        <v>83.5294117647059</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="F21" s="14">
+        <v>83.529411764705898</v>
+      </c>
+      <c r="G21" s="15">
         <v>26454.2692113378</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <v>27051213.4555493</v>
       </c>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="14">
+    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" t="s" s="15">
+      <c r="B22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="16">
-        <v>81.7302219692658</v>
-      </c>
-      <c r="D22" s="16">
-        <v>82.29000000000001</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="C22" s="14">
+        <v>81.730221969265799</v>
+      </c>
+      <c r="D22" s="14">
+        <v>82.29</v>
+      </c>
+      <c r="E22" s="14">
         <v>75.48</v>
       </c>
-      <c r="F22" s="16">
-        <v>85.6280855732309</v>
-      </c>
-      <c r="G22" s="17">
-        <v>22982.1257150065</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="F22" s="14">
+        <v>85.628085573230905</v>
+      </c>
+      <c r="G22" s="15">
+        <v>22982.125715006499</v>
+      </c>
+      <c r="H22" s="16">
         <v>22698495.7172767</v>
       </c>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="14">
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="15">
+      <c r="B23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="16">
-        <v>84.13348946135829</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="C23" s="14">
+        <v>84.133489461358295</v>
+      </c>
+      <c r="D23" s="14">
         <v>83.75</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>76.89</v>
       </c>
-      <c r="F23" s="16">
-        <v>86.1309138042774</v>
-      </c>
-      <c r="G23" s="17">
-        <v>31136.7318903894</v>
-      </c>
-      <c r="H23" s="18">
-        <v>33663448.2791136</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="14">
+      <c r="F23" s="14">
+        <v>86.130913804277398</v>
+      </c>
+      <c r="G23" s="15">
+        <v>31136.731890389401</v>
+      </c>
+      <c r="H23" s="16">
+        <v>33663448.279113598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" t="s" s="15">
+      <c r="B24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="16">
-        <v>22.6865671641791</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="C24" s="14">
+        <v>22.686567164179099</v>
+      </c>
+      <c r="D24" s="14">
         <v>14.99</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>13.65</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="14">
         <v>13.2762312633833</v>
       </c>
-      <c r="G24" s="17">
-        <v>39862.7497953315</v>
-      </c>
-      <c r="H24" s="20">
-        <v>56688145.179702</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="14">
+      <c r="G24" s="15">
+        <v>39862.749795331503</v>
+      </c>
+      <c r="H24" s="18">
+        <v>56688145.179701999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" t="s" s="15">
+      <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="16">
-        <v>88.9031595170819</v>
-      </c>
-      <c r="D25" s="16">
-        <v>88.76000000000001</v>
-      </c>
-      <c r="E25" s="16">
-        <v>82.20999999999999</v>
-      </c>
-      <c r="F25" s="16">
-        <v>91.30547625227091</v>
-      </c>
-      <c r="G25" s="17">
+      <c r="C25" s="14">
+        <v>88.903159517081903</v>
+      </c>
+      <c r="D25" s="14">
+        <v>88.76</v>
+      </c>
+      <c r="E25" s="14">
+        <v>82.21</v>
+      </c>
+      <c r="F25" s="14">
+        <v>91.305476252270907</v>
+      </c>
+      <c r="G25" s="15">
         <v>32559.0762212062</v>
       </c>
-      <c r="H25" s="18">
-        <v>42204384.5422658</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="14">
+      <c r="H25" s="16">
+        <v>42204384.542265803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" t="s" s="15">
+      <c r="B26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="16">
-        <v>90.1960784313726</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C26" s="14">
+        <v>90.196078431372598</v>
+      </c>
+      <c r="D26" s="14">
         <v>89.45</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>82.63</v>
       </c>
-      <c r="F26" s="16">
-        <v>92.2789539227895</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="F26" s="14">
+        <v>92.278953922789498</v>
+      </c>
+      <c r="G26" s="19">
         <v>20797.473457859</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="16">
         <v>19072287.8238042</v>
       </c>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="14">
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" t="s" s="15">
+      <c r="B27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="16">
-        <v>74.0182894029048</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="C27" s="14">
+        <v>74.018289402904799</v>
+      </c>
+      <c r="D27" s="14">
         <v>73.19</v>
       </c>
-      <c r="E27" s="16">
-        <v>67.04000000000001</v>
-      </c>
-      <c r="F27" s="16">
-        <v>73.3100233100233</v>
-      </c>
-      <c r="G27" s="17">
-        <v>27712.1110914795</v>
-      </c>
-      <c r="H27" s="18">
-        <v>45191100.5593894</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="14">
+      <c r="E27" s="14">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="F27" s="14">
+        <v>73.310023310023297</v>
+      </c>
+      <c r="G27" s="15">
+        <v>27712.111091479499</v>
+      </c>
+      <c r="H27" s="16">
+        <v>45191100.559389398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" t="s" s="15">
+      <c r="B28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <v>91.377245508982</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <v>92.37</v>
       </c>
-      <c r="E28" s="16">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="F28" s="16">
-        <v>94.7603121516165</v>
-      </c>
-      <c r="G28" s="17">
-        <v>18552.4075815481</v>
-      </c>
-      <c r="H28" s="18">
-        <v>10215859.0840198</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="14">
+      <c r="E28" s="14">
+        <v>86.1</v>
+      </c>
+      <c r="F28" s="14">
+        <v>94.760312151616503</v>
+      </c>
+      <c r="G28" s="15">
+        <v>18552.407581548101</v>
+      </c>
+      <c r="H28" s="16">
+        <v>10215859.084019801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" t="s" s="15">
+      <c r="B29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="16">
-        <v>72.1212121212121</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="C29" s="14">
+        <v>72.121212121212096</v>
+      </c>
+      <c r="D29" s="14">
         <v>71.17</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>68.02</v>
       </c>
-      <c r="F29" s="16">
-        <v>77.3294908741595</v>
-      </c>
-      <c r="G29" s="17">
-        <v>40019.1854001864</v>
-      </c>
-      <c r="H29" s="18">
-        <v>65360039.1701278</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="14">
+      <c r="F29" s="14">
+        <v>77.329490874159504</v>
+      </c>
+      <c r="G29" s="15">
+        <v>40019.185400186398</v>
+      </c>
+      <c r="H29" s="16">
+        <v>65360039.170127802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" t="s" s="15">
+      <c r="B30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="16">
-        <v>83.2369942196532</v>
-      </c>
-      <c r="D30" s="16">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="E30" s="16">
-        <v>78.20999999999999</v>
-      </c>
-      <c r="F30" s="16">
-        <v>84.407796101949</v>
-      </c>
-      <c r="G30" s="17">
-        <v>14976.1238513953</v>
-      </c>
-      <c r="H30" s="18">
+      <c r="C30" s="14">
+        <v>83.236994219653198</v>
+      </c>
+      <c r="D30" s="14">
+        <v>83.99</v>
+      </c>
+      <c r="E30" s="14">
+        <v>78.209999999999994</v>
+      </c>
+      <c r="F30" s="14">
+        <v>84.407796101949003</v>
+      </c>
+      <c r="G30" s="15">
+        <v>14976.123851395299</v>
+      </c>
+      <c r="H30" s="16">
         <v>11684191.1190149</v>
       </c>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="14">
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" t="s" s="15">
+      <c r="B31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="16">
-        <v>77.09654686398871</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="C31" s="14">
+        <v>77.096546863988706</v>
+      </c>
+      <c r="D31" s="14">
         <v>78.48</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>70</v>
       </c>
-      <c r="F31" s="16">
-        <v>81.1070110701107</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="F31" s="14">
+        <v>81.107011070110701</v>
+      </c>
+      <c r="G31" s="15">
         <v>36034.4984469622</v>
       </c>
-      <c r="H31" s="18">
-        <v>63262430.0731008</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="14">
+      <c r="H31" s="16">
+        <v>63262430.073100798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" t="s" s="15">
+      <c r="B32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="16">
-        <v>69.3711967545639</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="C32" s="14">
+        <v>69.371196754563897</v>
+      </c>
+      <c r="D32" s="14">
         <v>70.25</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <v>58.32</v>
       </c>
-      <c r="F32" s="16">
-        <v>60.9756097560976</v>
-      </c>
-      <c r="G32" s="17">
-        <v>43415.0595477941</v>
-      </c>
-      <c r="H32" s="18">
+      <c r="F32" s="14">
+        <v>60.975609756097597</v>
+      </c>
+      <c r="G32" s="15">
+        <v>43415.059547794102</v>
+      </c>
+      <c r="H32" s="16">
         <v>24995836.2620936</v>
       </c>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="14">
+    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" t="s" s="15">
+      <c r="B33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="16">
-        <v>72.13603818615751</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="C33" s="14">
+        <v>72.136038186157506</v>
+      </c>
+      <c r="D33" s="14">
         <v>70.48</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="14">
         <v>65.73</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="14">
         <v>74.7406955460647</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>34419.6765281197</v>
       </c>
-      <c r="H33" s="18">
-        <v>49665744.2382935</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="14">
+      <c r="H33" s="16">
+        <v>49665744.238293499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" t="s" s="15">
+      <c r="B34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="14">
         <v>75.2982766239505</v>
       </c>
-      <c r="D34" s="16">
-        <v>73.65000000000001</v>
-      </c>
-      <c r="E34" s="16">
-        <v>68.81999999999999</v>
-      </c>
-      <c r="F34" s="16">
-        <v>76.51680488869491</v>
-      </c>
-      <c r="G34" s="17">
+      <c r="D34" s="14">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="E34" s="14">
+        <v>68.819999999999993</v>
+      </c>
+      <c r="F34" s="14">
+        <v>76.516804888694907</v>
+      </c>
+      <c r="G34" s="15">
         <v>29314.3346718106</v>
       </c>
-      <c r="H34" s="18">
-        <v>44147812.3259686</v>
-      </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="14">
+      <c r="H34" s="16">
+        <v>44147812.325968601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" t="s" s="15">
+      <c r="B35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="16">
-        <v>92.7459016393443</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="C35" s="14">
+        <v>92.745901639344297</v>
+      </c>
+      <c r="D35" s="14">
         <v>92.47</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <v>84.69</v>
       </c>
-      <c r="F35" s="16">
-        <v>93.87434554973819</v>
-      </c>
-      <c r="G35" s="17">
+      <c r="F35" s="14">
+        <v>93.874345549738194</v>
+      </c>
+      <c r="G35" s="15">
         <v>13120.1587193821</v>
       </c>
-      <c r="H35" s="19">
-        <v>8897845.19137351</v>
-      </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="14">
+      <c r="H35" s="17">
+        <v>8897845.1913735103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" t="s" s="15">
+      <c r="B36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="16">
-        <v>66.2207357859532</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="C36" s="14">
+        <v>66.220735785953195</v>
+      </c>
+      <c r="D36" s="14">
         <v>69.25</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="14">
         <v>62.41</v>
       </c>
-      <c r="F36" s="16">
-        <v>67.73946360153261</v>
-      </c>
-      <c r="G36" s="17">
-        <v>43152.6256992199</v>
-      </c>
-      <c r="H36" s="18">
-        <v>62441489.2397897</v>
-      </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="14">
+      <c r="F36" s="14">
+        <v>67.739463601532606</v>
+      </c>
+      <c r="G36" s="15">
+        <v>43152.625699219898</v>
+      </c>
+      <c r="H36" s="16">
+        <v>62441489.239789702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" t="s" s="15">
+      <c r="B37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="16">
-        <v>75.7469244288225</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="C37" s="14">
+        <v>75.746924428822496</v>
+      </c>
+      <c r="D37" s="14">
         <v>73.5</v>
       </c>
-      <c r="E37" s="16">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="F37" s="16">
-        <v>69.70297029702969</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="E37" s="14">
+        <v>65.489999999999995</v>
+      </c>
+      <c r="F37" s="14">
+        <v>69.702970297029694</v>
+      </c>
+      <c r="G37" s="15">
         <v>25020.0969697781</v>
       </c>
-      <c r="H37" s="20">
-        <v>23823949.929494</v>
-      </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="14">
+      <c r="H37" s="18">
+        <v>23823949.929494001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" t="s" s="15">
+      <c r="B38" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="16">
-        <v>88.6899151743638</v>
-      </c>
-      <c r="D38" s="16">
+      <c r="C38" s="14">
+        <v>88.689915174363804</v>
+      </c>
+      <c r="D38" s="14">
         <v>90.33</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="14">
         <v>81.87</v>
       </c>
-      <c r="F38" s="16">
-        <v>92.32293214462609</v>
-      </c>
-      <c r="G38" s="17">
-        <v>22767.8274161691</v>
-      </c>
-      <c r="H38" s="18">
-        <v>17884471.2860874</v>
-      </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="14">
+      <c r="F38" s="14">
+        <v>92.322932144626094</v>
+      </c>
+      <c r="G38" s="15">
+        <v>22767.827416169101</v>
+      </c>
+      <c r="H38" s="16">
+        <v>17884471.286087401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" t="s" s="15">
+      <c r="B39" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="16">
-        <v>71.8974358974359</v>
-      </c>
-      <c r="D39" s="16">
-        <v>76.70999999999999</v>
-      </c>
-      <c r="E39" s="16">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="F39" s="16">
-        <v>80.4651162790698</v>
-      </c>
-      <c r="G39" s="17">
+      <c r="C39" s="14">
+        <v>71.897435897435898</v>
+      </c>
+      <c r="D39" s="14">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="E39" s="14">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F39" s="14">
+        <v>80.465116279069804</v>
+      </c>
+      <c r="G39" s="15">
         <v>44412.7451302931</v>
       </c>
-      <c r="H39" s="18">
-        <v>67470845.98970769</v>
-      </c>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="14">
+      <c r="H39" s="16">
+        <v>67470845.989707693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="15">
+      <c r="B40" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="16">
-        <v>30.0653594771242</v>
-      </c>
-      <c r="D40" s="16">
-        <v>34.95</v>
-      </c>
-      <c r="E40" s="16">
+      <c r="C40" s="14">
+        <v>30.065359477124201</v>
+      </c>
+      <c r="D40" s="14">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="E40" s="14">
         <v>27.89</v>
       </c>
-      <c r="F40" s="16">
-        <v>28.5714285714286</v>
-      </c>
-      <c r="G40" s="17">
-        <v>38539.7661484923</v>
-      </c>
-      <c r="H40" s="20">
-        <v>56943058.650076</v>
-      </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="14">
+      <c r="F40" s="14">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G40" s="15">
+        <v>38539.766148492301</v>
+      </c>
+      <c r="H40" s="18">
+        <v>56943058.650076002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" t="s" s="15">
+      <c r="B41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="16">
-        <v>35.0597609561753</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="C41" s="14">
+        <v>35.059760956175303</v>
+      </c>
+      <c r="D41" s="14">
         <v>29.37</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="14">
         <v>24.81</v>
       </c>
-      <c r="F41" s="16">
-        <v>28.1758957654723</v>
-      </c>
-      <c r="G41" s="17">
-        <v>42904.2221443837</v>
-      </c>
-      <c r="H41" s="18">
-        <v>74923987.6939622</v>
-      </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="14">
+      <c r="F41" s="14">
+        <v>28.175895765472301</v>
+      </c>
+      <c r="G41" s="15">
+        <v>42904.222144383697</v>
+      </c>
+      <c r="H41" s="16">
+        <v>74923987.693962201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" t="s" s="15">
+      <c r="B42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="16">
-        <v>76.6317887394121</v>
-      </c>
-      <c r="D42" s="16">
+      <c r="C42" s="14">
+        <v>76.631788739412102</v>
+      </c>
+      <c r="D42" s="14">
         <v>74.62</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="14">
         <v>71.02</v>
       </c>
-      <c r="F42" s="16">
-        <v>78.60262008733621</v>
-      </c>
-      <c r="G42" s="17">
-        <v>38889.8945910241</v>
-      </c>
-      <c r="H42" s="18">
-        <v>52743271.7685975</v>
-      </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="14">
+      <c r="F42" s="14">
+        <v>78.602620087336206</v>
+      </c>
+      <c r="G42" s="15">
+        <v>38889.894591024102</v>
+      </c>
+      <c r="H42" s="16">
+        <v>52743271.768597499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
-      <c r="B43" t="s" s="15">
+      <c r="B43" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="16">
-        <v>92.03589455973081</v>
-      </c>
-      <c r="D43" s="16">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="E43" s="16">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="F43" s="16">
+      <c r="C43" s="14">
+        <v>92.035894559730806</v>
+      </c>
+      <c r="D43" s="14">
+        <v>92.4</v>
+      </c>
+      <c r="E43" s="14">
+        <v>85.6</v>
+      </c>
+      <c r="F43" s="14">
         <v>93.0334613274822</v>
       </c>
-      <c r="G43" s="21">
-        <v>23866.328178856</v>
-      </c>
-      <c r="H43" s="18">
+      <c r="G43" s="19">
+        <v>23866.328178856002</v>
+      </c>
+      <c r="H43" s="16">
         <v>24585968.2339966</v>
       </c>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="14">
+    <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" t="s" s="15">
+      <c r="B44" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="16">
-        <v>81.1423390752493</v>
-      </c>
-      <c r="D44" s="16">
-        <v>85.20999999999999</v>
-      </c>
-      <c r="E44" s="16">
+      <c r="C44" s="14">
+        <v>81.142339075249296</v>
+      </c>
+      <c r="D44" s="14">
+        <v>85.21</v>
+      </c>
+      <c r="E44" s="14">
         <v>79.39</v>
       </c>
-      <c r="F44" s="16">
-        <v>88.0776959142666</v>
-      </c>
-      <c r="G44" s="17">
-        <v>47825.8629265765</v>
-      </c>
-      <c r="H44" s="18">
-        <v>89894372.21148279</v>
-      </c>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="14">
+      <c r="F44" s="14">
+        <v>88.077695914266599</v>
+      </c>
+      <c r="G44" s="15">
+        <v>47825.862926576498</v>
+      </c>
+      <c r="H44" s="16">
+        <v>89894372.211482793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" t="s" s="15">
+      <c r="B45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="16">
-        <v>88.172521120498</v>
-      </c>
-      <c r="D45" s="16">
+      <c r="C45" s="14">
+        <v>88.172521120498004</v>
+      </c>
+      <c r="D45" s="14">
         <v>89.88</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="14">
         <v>81.56</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="14">
         <v>89.7356828193833</v>
       </c>
-      <c r="G45" s="17">
-        <v>21786.3746600731</v>
-      </c>
-      <c r="H45" s="18">
-        <v>14507643.2040733</v>
-      </c>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="14">
+      <c r="G45" s="15">
+        <v>21786.374660073099</v>
+      </c>
+      <c r="H45" s="16">
+        <v>14507643.204073301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
-      <c r="B46" t="s" s="15">
+      <c r="B46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="16">
-        <v>89.80929678188321</v>
-      </c>
-      <c r="D46" s="16">
-        <v>89.68000000000001</v>
-      </c>
-      <c r="E46" s="16">
+      <c r="C46" s="14">
+        <v>89.809296781883205</v>
+      </c>
+      <c r="D46" s="14">
+        <v>89.68</v>
+      </c>
+      <c r="E46" s="14">
         <v>82.31</v>
       </c>
-      <c r="F46" s="16">
-        <v>90.6163242642976</v>
-      </c>
-      <c r="G46" s="17">
+      <c r="F46" s="14">
+        <v>90.616324264297603</v>
+      </c>
+      <c r="G46" s="15">
         <v>29078.8384985474</v>
       </c>
-      <c r="H46" s="18">
-        <v>41059796.6771503</v>
-      </c>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="14">
+      <c r="H46" s="16">
+        <v>41059796.677150302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
-      <c r="B47" t="s" s="15">
+      <c r="B47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="16">
-        <v>87.77985074626871</v>
-      </c>
-      <c r="D47" s="16">
+      <c r="C47" s="14">
+        <v>87.779850746268707</v>
+      </c>
+      <c r="D47" s="14">
         <v>85.84</v>
       </c>
-      <c r="E47" s="16">
-        <v>79.45999999999999</v>
-      </c>
-      <c r="F47" s="16">
-        <v>89.2323030907278</v>
-      </c>
-      <c r="G47" s="17">
+      <c r="E47" s="14">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="F47" s="14">
+        <v>89.232303090727797</v>
+      </c>
+      <c r="G47" s="15">
         <v>24725.9340693497</v>
       </c>
-      <c r="H47" s="18">
-        <v>30400962.0052273</v>
-      </c>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="14">
+      <c r="H47" s="16">
+        <v>30400962.005227301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
-      <c r="B48" t="s" s="15">
+      <c r="B48" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="16">
-        <v>91.1623439000961</v>
-      </c>
-      <c r="D48" s="16">
-        <v>88.70999999999999</v>
-      </c>
-      <c r="E48" s="16">
+      <c r="C48" s="14">
+        <v>91.162343900096104</v>
+      </c>
+      <c r="D48" s="14">
+        <v>88.71</v>
+      </c>
+      <c r="E48" s="14">
         <v>84.14</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <v>93.3333333333333</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="15">
         <v>12334.0275347364</v>
       </c>
-      <c r="H48" s="19">
-        <v>9302012.998827079</v>
-      </c>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="14">
+      <c r="H48" s="17">
+        <v>9302012.9988270793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
-      <c r="B49" t="s" s="15">
+      <c r="B49" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="16">
-        <v>89.42247332077839</v>
-      </c>
-      <c r="D49" s="16">
+      <c r="C49" s="14">
+        <v>89.422473320778394</v>
+      </c>
+      <c r="D49" s="14">
         <v>89.38</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>82.2</v>
       </c>
-      <c r="F49" s="16">
-        <v>93.3403068340307</v>
-      </c>
-      <c r="G49" s="17">
-        <v>20987.1433066415</v>
-      </c>
-      <c r="H49" s="18">
+      <c r="F49" s="14">
+        <v>93.340306834030699</v>
+      </c>
+      <c r="G49" s="15">
+        <v>20987.143306641501</v>
+      </c>
+      <c r="H49" s="16">
         <v>23672092.8680536</v>
       </c>
     </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="14">
+    <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
-      <c r="B50" t="s" s="15">
+      <c r="B50" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="16">
-        <v>59.4155844155844</v>
-      </c>
-      <c r="D50" s="16">
+      <c r="C50" s="14">
+        <v>59.415584415584398</v>
+      </c>
+      <c r="D50" s="14">
         <v>63.72</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="14">
         <v>55.24</v>
       </c>
-      <c r="F50" s="16">
-        <v>57.5757575757576</v>
-      </c>
-      <c r="G50" s="17">
-        <v>68440.0258267645</v>
-      </c>
-      <c r="H50" s="22">
-        <v>46353935.42529</v>
-      </c>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="14">
+      <c r="F50" s="14">
+        <v>57.575757575757599</v>
+      </c>
+      <c r="G50" s="15">
+        <v>68440.025826764497</v>
+      </c>
+      <c r="H50" s="20">
+        <v>46353935.425290003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
-      <c r="B51" t="s" s="15">
+      <c r="B51" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="16">
-        <v>82.52656434474621</v>
-      </c>
-      <c r="D51" s="16">
+      <c r="C51" s="14">
+        <v>82.526564344746205</v>
+      </c>
+      <c r="D51" s="14">
         <v>88.58</v>
       </c>
-      <c r="E51" s="16">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F51" s="16">
-        <v>88.2219705549264</v>
-      </c>
-      <c r="G51" s="21">
+      <c r="E51" s="14">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F51" s="14">
+        <v>88.221970554926401</v>
+      </c>
+      <c r="G51" s="19">
         <v>102291.480547452</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="18">
         <v>111251478.472831</v>
       </c>
     </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="14">
+    <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
-      <c r="B52" t="s" s="15">
+      <c r="B52" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="16">
-        <v>87.515923566879</v>
-      </c>
-      <c r="D52" s="16">
+      <c r="C52" s="14">
+        <v>87.515923566878996</v>
+      </c>
+      <c r="D52" s="14">
         <v>88.64</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="14">
         <v>80.73</v>
       </c>
-      <c r="F52" s="16">
-        <v>89.30369127516779</v>
-      </c>
-      <c r="G52" s="17">
+      <c r="F52" s="14">
+        <v>89.303691275167793</v>
+      </c>
+      <c r="G52" s="15">
         <v>24052.2213722085</v>
       </c>
-      <c r="H52" s="18">
-        <v>27876227.5906738</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="14">
+      <c r="H52" s="16">
+        <v>27876227.590673801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
-      <c r="B53" t="s" s="15">
+      <c r="B53" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="16">
-        <v>90.9344845099035</v>
-      </c>
-      <c r="D53" s="16">
+      <c r="C53" s="14">
+        <v>90.934484509903498</v>
+      </c>
+      <c r="D53" s="14">
         <v>90.75</v>
       </c>
-      <c r="E53" s="16">
-        <v>83.29000000000001</v>
-      </c>
-      <c r="F53" s="16">
-        <v>93.43607305936069</v>
-      </c>
-      <c r="G53" s="17">
-        <v>28355.5635813649</v>
-      </c>
-      <c r="H53" s="18">
-        <v>37766068.8367913</v>
-      </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="14">
+      <c r="E53" s="14">
+        <v>83.29</v>
+      </c>
+      <c r="F53" s="14">
+        <v>93.436073059360695</v>
+      </c>
+      <c r="G53" s="15">
+        <v>28355.563581364899</v>
+      </c>
+      <c r="H53" s="16">
+        <v>37766068.836791299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
-      <c r="B54" t="s" s="15">
+      <c r="B54" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="16">
-        <v>83.43558282208591</v>
-      </c>
-      <c r="D54" s="16">
-        <v>83.31999999999999</v>
-      </c>
-      <c r="E54" s="16">
-        <v>75.15000000000001</v>
-      </c>
-      <c r="F54" s="16">
-        <v>84.96062992125989</v>
-      </c>
-      <c r="G54" s="17">
-        <v>18733.8268797396</v>
-      </c>
-      <c r="H54" s="18">
+      <c r="C54" s="14">
+        <v>83.435582822085905</v>
+      </c>
+      <c r="D54" s="14">
+        <v>83.32</v>
+      </c>
+      <c r="E54" s="14">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="F54" s="14">
+        <v>84.960629921259894</v>
+      </c>
+      <c r="G54" s="15">
+        <v>18733.826879739601</v>
+      </c>
+      <c r="H54" s="16">
         <v>20383750.5443637</v>
       </c>
     </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="14">
+    <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12">
         <v>53</v>
       </c>
-      <c r="B55" t="s" s="15">
+      <c r="B55" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="16">
-        <v>92.6556420233463</v>
-      </c>
-      <c r="D55" s="16">
+      <c r="C55" s="14">
+        <v>92.655642023346303</v>
+      </c>
+      <c r="D55" s="14">
         <v>93.75</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="14">
         <v>86.41</v>
       </c>
-      <c r="F55" s="16">
-        <v>94.76937708036139</v>
-      </c>
-      <c r="G55" s="17">
-        <v>19389.3078211947</v>
-      </c>
-      <c r="H55" s="18">
-        <v>16976622.3381282</v>
-      </c>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="14">
+      <c r="F55" s="14">
+        <v>94.769377080361394</v>
+      </c>
+      <c r="G55" s="15">
+        <v>19389.307821194699</v>
+      </c>
+      <c r="H55" s="16">
+        <v>16976622.338128202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
-      <c r="B56" t="s" s="15">
+      <c r="B56" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="16">
-        <v>87.40554156171289</v>
-      </c>
-      <c r="D56" s="16">
+      <c r="C56" s="14">
+        <v>87.405541561712894</v>
+      </c>
+      <c r="D56" s="14">
         <v>87.77</v>
       </c>
-      <c r="E56" s="16">
-        <v>81.06999999999999</v>
-      </c>
-      <c r="F56" s="16">
-        <v>89.7590361445783</v>
-      </c>
-      <c r="G56" s="17">
-        <v>36962.2600947345</v>
-      </c>
-      <c r="H56" s="18">
-        <v>39343262.0375946</v>
-      </c>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="14">
+      <c r="E56" s="14">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="F56" s="14">
+        <v>89.759036144578303</v>
+      </c>
+      <c r="G56" s="15">
+        <v>36962.260094734498</v>
+      </c>
+      <c r="H56" s="16">
+        <v>39343262.037594602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
-      <c r="B57" t="s" s="15">
+      <c r="B57" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="16">
-        <v>88.0180859080633</v>
-      </c>
-      <c r="D57" s="16">
-        <v>87.04000000000001</v>
-      </c>
-      <c r="E57" s="16">
+      <c r="C57" s="14">
+        <v>88.018085908063298</v>
+      </c>
+      <c r="D57" s="14">
+        <v>87.04</v>
+      </c>
+      <c r="E57" s="14">
         <v>82.2</v>
       </c>
-      <c r="F57" s="16">
-        <v>91.16719242902209</v>
-      </c>
-      <c r="G57" s="17">
-        <v>42573.1244161893</v>
-      </c>
-      <c r="H57" s="18">
-        <v>45494092.9497963</v>
+      <c r="F57" s="14">
+        <v>91.167192429022094</v>
+      </c>
+      <c r="G57" s="15">
+        <v>42573.124416189297</v>
+      </c>
+      <c r="H57" s="16">
+        <v>45494092.949796297</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3259,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3170,107 +3267,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="6" width="16.33203125" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
